--- a/Input/Lactose_operon.xlsx
+++ b/Input/Lactose_operon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Model name</t>
   </si>
@@ -46,70 +46,73 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">alpha_M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha_M*((1+K_1*A)/(K_0+K_1*A))+Gamma_0-gamma_M*M</t>
+    <t xml:space="preserve">a_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_1*((1+K_1*A)/(K_0+K_1*A))+G_0-g_1*M</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">alpha_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha_B*M-gamma_B*B</t>
+    <t xml:space="preserve">a_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_2*M-g_2*B</t>
   </si>
   <si>
     <t xml:space="preserve">L</t>
   </si>
   <si>
-    <t xml:space="preserve">alpha_L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha_L*((P*L)/(K_2+L))-beta_L1*((P*L)/(K_3+L))-beta_L2*((B*L)/(K_3+L))-gamma_L*L</t>
+    <t xml:space="preserve">a_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_3*((P*L)/(K_2+L))-b_1*((P*L)/(K_3+L))-b_2*((B*L)/(K_4+L))-g_3*L</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">alpha_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha_A*((B*L)/(K_4+L)) – beta_A*((B*A)/(K5+A))-gamma_A*A</t>
+    <t xml:space="preserve">a_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_4*((B*L)/(K_5+L))-b_3*((B*A)/(K_6+A))-g_4*A</t>
   </si>
   <si>
     <t xml:space="preserve">P</t>
   </si>
   <si>
-    <t xml:space="preserve">beta_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha_P*M-gamma_P*P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gamma_M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gamma_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gamma_L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gamma_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gamma_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gamma_0</t>
+    <t xml:space="preserve">a_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_5*M-g_5*P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G_0</t>
   </si>
   <si>
     <t xml:space="preserve">K_0</t>
@@ -128,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">K_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K_6</t>
   </si>
 </sst>
 </file>
@@ -142,6 +148,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -227,13 +234,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="74.56"/>
@@ -344,17 +351,17 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -386,6 +393,16 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
